--- a/individual_results/avey/74.xlsx
+++ b/individual_results/avey/74.xlsx
@@ -561,7 +561,7 @@
         <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
         <v>0.5</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I2" t="n">
         <v>0.6666666666666666</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I3" t="n">
         <v>0.6666666666666666</v>
@@ -707,14 +707,14 @@
         <v>0.7499999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4" t="n">
         <v>0.6666666666666666</v>
@@ -776,14 +776,14 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F5" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5" t="n">
         <v>0.6666666666666666</v>
@@ -845,7 +845,7 @@
         <v>0.619993237061603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9508013338940989</v>
+        <v>0.7911043622741993</v>
       </c>
       <c r="F6" t="n">
         <v>0.6489436297638531</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2015151419005024</v>
+        <v>0.9467676761267002</v>
       </c>
       <c r="I6" t="n">
         <v>0.9467676761267002</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1143,7 +1143,9 @@
         <v>2</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
